--- a/夺金伤害计算模拟/通用武器/S5子弹数据.xlsx
+++ b/夺金伤害计算模拟/通用武器/S5子弹数据.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor2\Desktop\三角洲行动\三角洲行动计算模拟器\夺金伤害计算模拟\通用武器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438082B5-6143-467A-BC35-033433E8A24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CB8339-0AE4-4126-AF16-3B900187EBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{922C4359-0A38-4B32-B0B0-2174A31A28FC}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>.45 ACP AP</t>
   </si>
   <si>
-    <t>.45 ACP+P</t>
-  </si>
-  <si>
     <t>.50 AE</t>
   </si>
   <si>
@@ -394,6 +391,10 @@
   </si>
   <si>
     <t>.300BLK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>.45 ACP +P</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -938,16 +939,15 @@
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A113" sqref="A113"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="12" width="20.6640625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="14.21875" style="3"/>
+    <col min="1" max="16384" width="22.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
@@ -967,7 +967,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="13.8">
+    <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="13.8">
+    <row r="3" spans="1:12" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1015,7 +1015,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="13.8">
+    <row r="4" spans="1:12" ht="18" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13.8">
+    <row r="5" spans="1:12" ht="18" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="13.8">
+    <row r="6" spans="1:12" ht="18" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
@@ -1120,13 +1120,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.8"/>
-    <row r="8" spans="1:12" ht="13.8">
+    <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="13.8">
+    <row r="9" spans="1:12" ht="18" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="13.8">
+    <row r="10" spans="1:12" ht="18" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="13.8">
+    <row r="11" spans="1:12" ht="18" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1231,7 +1230,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="13.8">
+    <row r="12" spans="1:12" ht="18" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="13.8">
+    <row r="13" spans="1:12" ht="18" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>23</v>
       </c>
@@ -1301,9 +1300,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="13.8">
+    <row r="14" spans="1:12" ht="18" customHeight="1">
       <c r="B14" s="7" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1336,15 +1335,14 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="13.8"/>
-    <row r="16" spans="1:12" ht="13.8">
+    <row r="16" spans="1:12" ht="18" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1">
+      <c r="B17" s="4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="13.8">
-      <c r="B17" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -1377,9 +1375,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="13.8">
+    <row r="18" spans="1:12" ht="18" customHeight="1">
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1412,9 +1410,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13.8">
+    <row r="19" spans="1:12" ht="18" customHeight="1">
       <c r="B19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -1447,15 +1445,14 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="13.8"/>
-    <row r="21" spans="1:12" ht="13.8">
+    <row r="21" spans="1:12" ht="18" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1">
+      <c r="B22" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="13.8">
-      <c r="B22" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1488,9 +1485,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="13.8">
+    <row r="23" spans="1:12" ht="18" customHeight="1">
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1523,9 +1520,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="13.8">
+    <row r="24" spans="1:12" ht="18" customHeight="1">
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -1558,9 +1555,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="13.8">
+    <row r="25" spans="1:12" ht="18" customHeight="1">
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
@@ -1595,12 +1592,12 @@
     </row>
     <row r="27" spans="1:12" ht="18" customHeight="1">
       <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18" customHeight="1">
+      <c r="B28" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="13.8">
-      <c r="B28" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -1633,9 +1630,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="13.8">
+    <row r="29" spans="1:12" ht="18" customHeight="1">
       <c r="B29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -1668,9 +1665,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="13.8">
+    <row r="30" spans="1:12" ht="18" customHeight="1">
       <c r="B30" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -1703,15 +1700,14 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="13.8"/>
-    <row r="32" spans="1:12" ht="13.8">
+    <row r="32" spans="1:12" ht="18" customHeight="1">
       <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18" customHeight="1">
+      <c r="B33" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="13.8">
-      <c r="B33" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C33" s="3">
         <v>1</v>
@@ -1744,9 +1740,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="13.8">
+    <row r="34" spans="1:12" ht="18" customHeight="1">
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -1779,9 +1775,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="13.8">
+    <row r="35" spans="1:12" ht="18" customHeight="1">
       <c r="B35" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
@@ -1814,9 +1810,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="13.8">
+    <row r="36" spans="1:12" ht="18" customHeight="1">
       <c r="B36" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -1849,9 +1845,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="13.8">
+    <row r="37" spans="1:12" ht="18" customHeight="1">
       <c r="B37" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
@@ -1884,15 +1880,14 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="13.8"/>
-    <row r="39" spans="1:12" ht="13.8">
+    <row r="39" spans="1:12" ht="18" customHeight="1">
       <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="18" customHeight="1">
+      <c r="B40" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="13.8">
-      <c r="B40" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -1925,9 +1920,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="13.8">
+    <row r="41" spans="1:12" ht="18" customHeight="1">
       <c r="B41" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -1960,9 +1955,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="13.8">
+    <row r="42" spans="1:12" ht="18" customHeight="1">
       <c r="B42" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -1995,9 +1990,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="13.8">
+    <row r="43" spans="1:12" ht="18" customHeight="1">
       <c r="B43" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -2030,9 +2025,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="13.8">
+    <row r="44" spans="1:12" ht="18" customHeight="1">
       <c r="B44" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -2065,15 +2060,14 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="13.8"/>
-    <row r="46" spans="1:12" ht="13.8">
+    <row r="46" spans="1:12" ht="18" customHeight="1">
       <c r="A46" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="18" customHeight="1">
+      <c r="B47" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="13.8">
-      <c r="B47" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -2106,9 +2100,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="13.8">
+    <row r="48" spans="1:12" ht="18" customHeight="1">
       <c r="B48" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -2141,9 +2135,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="13.8">
+    <row r="49" spans="1:12" ht="18" customHeight="1">
       <c r="B49" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
@@ -2176,9 +2170,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="13.8">
+    <row r="50" spans="1:12" ht="18" customHeight="1">
       <c r="B50" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -2211,9 +2205,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="13.8">
+    <row r="51" spans="1:12" ht="18" customHeight="1">
       <c r="B51" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -2246,9 +2240,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="13.8">
+    <row r="52" spans="1:12" ht="18" customHeight="1">
       <c r="B52" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -2281,15 +2275,14 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="13.8"/>
-    <row r="54" spans="1:12" ht="13.8">
+    <row r="54" spans="1:12" ht="18" customHeight="1">
       <c r="A54" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="18" customHeight="1">
+      <c r="B55" s="4" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="13.8">
-      <c r="B55" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -2322,9 +2315,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="13.8">
+    <row r="56" spans="1:12" ht="18" customHeight="1">
       <c r="B56" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -2357,9 +2350,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="13.8">
+    <row r="57" spans="1:12" ht="18" customHeight="1">
       <c r="B57" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
@@ -2392,9 +2385,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="13.8">
+    <row r="58" spans="1:12" ht="18" customHeight="1">
       <c r="B58" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -2427,15 +2420,14 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="13.8"/>
-    <row r="60" spans="1:12" ht="13.8">
+    <row r="60" spans="1:12" ht="18" customHeight="1">
       <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="18" customHeight="1">
+      <c r="B61" s="6" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="13.8">
-      <c r="B61" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
@@ -2468,9 +2460,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="13.8">
+    <row r="62" spans="1:12" ht="18" customHeight="1">
       <c r="B62" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -2503,9 +2495,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="13.8">
+    <row r="63" spans="1:12" ht="18" customHeight="1">
       <c r="B63" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
@@ -2538,15 +2530,14 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="13.8"/>
-    <row r="65" spans="1:12" ht="13.8">
+    <row r="65" spans="1:12" ht="18" customHeight="1">
       <c r="A65" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="18" customHeight="1">
+      <c r="B66" s="3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="13.8">
-      <c r="B66" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -2579,9 +2570,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="13.8">
+    <row r="67" spans="1:12" ht="18" customHeight="1">
       <c r="B67" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
@@ -2614,9 +2605,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="13.8">
+    <row r="68" spans="1:12" ht="18" customHeight="1">
       <c r="B68" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -2649,9 +2640,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="13.8">
+    <row r="69" spans="1:12" ht="18" customHeight="1">
       <c r="B69" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="3">
         <v>1</v>
@@ -2684,9 +2675,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="13.8">
+    <row r="70" spans="1:12" ht="18" customHeight="1">
       <c r="B70" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -2719,15 +2710,14 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="13.8"/>
-    <row r="72" spans="1:12" ht="13.8">
+    <row r="72" spans="1:12" ht="18" customHeight="1">
       <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="18" customHeight="1">
+      <c r="B73" s="4" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="13.8">
-      <c r="B73" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
@@ -2760,9 +2750,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="13.8">
+    <row r="74" spans="1:12" ht="18" customHeight="1">
       <c r="B74" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -2795,9 +2785,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="13.8">
+    <row r="75" spans="1:12" ht="18" customHeight="1">
       <c r="B75" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -2830,9 +2820,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="13.8">
+    <row r="76" spans="1:12" ht="18" customHeight="1">
       <c r="B76" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -2865,9 +2855,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="13.8">
+    <row r="77" spans="1:12" ht="18" customHeight="1">
       <c r="B77" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
@@ -2900,15 +2890,14 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="13.8"/>
-    <row r="79" spans="1:12" ht="13.8">
+    <row r="79" spans="1:12" ht="18" customHeight="1">
       <c r="A79" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="18" customHeight="1">
+      <c r="B80" s="5" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="13.8">
-      <c r="B80" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -2941,9 +2930,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="13.8">
+    <row r="81" spans="1:12" ht="18" customHeight="1">
       <c r="B81" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
@@ -2976,9 +2965,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="13.8">
+    <row r="82" spans="1:12" ht="18" customHeight="1">
       <c r="B82" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -3011,9 +3000,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="13.8">
+    <row r="83" spans="1:12" ht="18" customHeight="1">
       <c r="B83" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
@@ -3046,15 +3035,14 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="13.8"/>
-    <row r="85" spans="1:12" ht="13.8">
+    <row r="85" spans="1:12" ht="18" customHeight="1">
       <c r="A85" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="18" customHeight="1">
+      <c r="B86" s="3" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="13.8">
-      <c r="B86" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -3087,9 +3075,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="13.8">
+    <row r="87" spans="1:12" ht="18" customHeight="1">
       <c r="B87" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="3">
         <v>1</v>
@@ -3122,9 +3110,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="13.8">
+    <row r="88" spans="1:12" ht="18" customHeight="1">
       <c r="B88" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -3157,9 +3145,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="13.8">
+    <row r="89" spans="1:12" ht="18" customHeight="1">
       <c r="B89" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="3">
         <v>1</v>
@@ -3192,9 +3180,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="13.8">
+    <row r="90" spans="1:12" ht="18" customHeight="1">
       <c r="B90" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -3227,9 +3215,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="13.8">
+    <row r="91" spans="1:12" ht="18" customHeight="1">
       <c r="B91" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="3">
         <v>1</v>
@@ -3262,15 +3250,14 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="13.8"/>
-    <row r="93" spans="1:12" ht="13.8">
+    <row r="93" spans="1:12" ht="18" customHeight="1">
       <c r="A93" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="18" customHeight="1">
+      <c r="B94" s="5" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="13.8">
-      <c r="B94" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -3303,9 +3290,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="13.8">
+    <row r="95" spans="1:12" ht="18" customHeight="1">
       <c r="B95" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="3">
         <v>1</v>
@@ -3338,9 +3325,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="13.8">
+    <row r="96" spans="1:12" ht="18" customHeight="1">
       <c r="B96" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -3375,12 +3362,12 @@
     </row>
     <row r="98" spans="1:12" ht="18" customHeight="1">
       <c r="A98" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="18" customHeight="1">
+      <c r="B99" s="5" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="13.8">
-      <c r="B99" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="C99" s="3">
         <v>1</v>
@@ -3413,9 +3400,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="13.8">
+    <row r="100" spans="1:12" ht="18" customHeight="1">
       <c r="B100" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -3448,9 +3435,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="13.8">
+    <row r="101" spans="1:12" ht="18" customHeight="1">
       <c r="B101" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="3">
         <v>1</v>
@@ -3483,15 +3470,14 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="13.8"/>
-    <row r="103" spans="1:12" ht="13.8">
+    <row r="103" spans="1:12" ht="18" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="13.8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="18" customHeight="1">
       <c r="B104" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
@@ -3524,9 +3510,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="13.8">
+    <row r="105" spans="1:12" ht="18" customHeight="1">
       <c r="B105" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105" s="3">
         <v>1</v>
@@ -3559,9 +3545,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="13.8">
+    <row r="106" spans="1:12" ht="18" customHeight="1">
       <c r="B106" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -3594,15 +3580,14 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="13.8"/>
-    <row r="108" spans="1:12" ht="13.8">
+    <row r="108" spans="1:12" ht="18" customHeight="1">
       <c r="A108" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="18" customHeight="1">
+      <c r="B109" s="5" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="13.8">
-      <c r="B109" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="C109" s="3">
         <v>1</v>
@@ -3635,9 +3620,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="13.8">
+    <row r="110" spans="1:12" ht="18" customHeight="1">
       <c r="B110" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -3670,9 +3655,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="13.8">
+    <row r="111" spans="1:12" ht="18" customHeight="1">
       <c r="B111" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C111" s="3">
         <v>1</v>
@@ -3705,15 +3690,14 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="13.8"/>
-    <row r="113" spans="1:12" ht="13.8">
+    <row r="113" spans="1:12" ht="18" customHeight="1">
       <c r="A113" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="18" customHeight="1">
+      <c r="B114" s="11" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="13.8">
-      <c r="B114" s="11" t="s">
-        <v>104</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -3746,7 +3730,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="13.8">
+    <row r="115" spans="1:12" ht="18" customHeight="1">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
